--- a/UrenTijd/assets/UrenBriefTemplate.xlsx
+++ b/UrenTijd/assets/UrenBriefTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erhan\Projects\UrenTijd\UrenTijd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erhan\Projects\UrenTijd\UrenTijd\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68895BC1-D8D4-4F6D-874E-EAA4E7299427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBD5840-A542-4A8B-9BEE-B8DABAFE0C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1118,6 +1118,214 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1138,53 +1346,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1193,172 +1359,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1381,6 +1381,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,25 +1413,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1762,7 +1762,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="O1" sqref="O1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,99 +1789,97 @@
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="80"/>
+      <c r="C1" s="107"/>
       <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
       <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="29"/>
-      <c r="M1" s="70">
+      <c r="M1" s="97">
         <v>20</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="73">
-        <v>20</v>
-      </c>
-      <c r="P1" s="74"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="101"/>
     </row>
     <row r="2" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="77" t="s">
+      <c r="G3" s="106"/>
+      <c r="H3" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77" t="s">
+      <c r="I3" s="104"/>
+      <c r="J3" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77" t="s">
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="54"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="114"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
@@ -1897,15 +1895,15 @@
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
@@ -1921,35 +1919,35 @@
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
       <c r="B7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
@@ -1965,35 +1963,35 @@
       <c r="E8" s="36"/>
       <c r="F8" s="37"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
       <c r="B9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
@@ -2009,15 +2007,15 @@
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
@@ -2033,38 +2031,38 @@
       <c r="E11" s="44"/>
       <c r="F11" s="45"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="82">
+      <c r="H11" s="60">
         <f>SUM(F5:G11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="98"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="75"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
@@ -2080,15 +2078,15 @@
       <c r="E13" s="36"/>
       <c r="F13" s="37"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
@@ -2104,35 +2102,35 @@
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="30"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
@@ -2148,35 +2146,35 @@
       <c r="E16" s="36"/>
       <c r="F16" s="37"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="30"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
@@ -2192,15 +2190,15 @@
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
       <c r="G18" s="31"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
@@ -2216,38 +2214,38 @@
       <c r="E19" s="44"/>
       <c r="F19" s="45"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="82">
+      <c r="H19" s="60">
         <f>SUM(F13:G19)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="83"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="98"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="75"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
@@ -2263,15 +2261,15 @@
       <c r="E21" s="36"/>
       <c r="F21" s="37"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
@@ -2287,35 +2285,35 @@
       <c r="E22" s="36"/>
       <c r="F22" s="37"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="30"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="91"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="92"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
@@ -2331,35 +2329,35 @@
       <c r="E24" s="36"/>
       <c r="F24" s="37"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
@@ -2375,15 +2373,15 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="41" t="s">
@@ -2399,38 +2397,38 @@
       <c r="E27" s="44"/>
       <c r="F27" s="45"/>
       <c r="G27" s="32"/>
-      <c r="H27" s="82">
+      <c r="H27" s="60">
         <f>SUM(F21:G27)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="83"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="98"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="75"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
@@ -2446,15 +2444,15 @@
       <c r="E29" s="36"/>
       <c r="F29" s="37"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="s">
@@ -2470,35 +2468,35 @@
       <c r="E30" s="36"/>
       <c r="F30" s="37"/>
       <c r="G30" s="31"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39"/>
       <c r="B31" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
@@ -2514,35 +2512,35 @@
       <c r="E32" s="36"/>
       <c r="F32" s="37"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="39"/>
       <c r="B33" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
@@ -2558,15 +2556,15 @@
       <c r="E34" s="36"/>
       <c r="F34" s="37"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="41" t="s">
@@ -2582,38 +2580,38 @@
       <c r="E35" s="44"/>
       <c r="F35" s="45"/>
       <c r="G35" s="32"/>
-      <c r="H35" s="82">
+      <c r="H35" s="60">
         <f>SUM(F29:G35)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="98"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="75"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
@@ -2629,15 +2627,15 @@
       <c r="E37" s="36"/>
       <c r="F37" s="37"/>
       <c r="G37" s="31"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
@@ -2653,35 +2651,35 @@
       <c r="E38" s="36"/>
       <c r="F38" s="37"/>
       <c r="G38" s="31"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39"/>
       <c r="B39" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
       <c r="G39" s="30"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
@@ -2697,35 +2695,35 @@
       <c r="E40" s="36"/>
       <c r="F40" s="37"/>
       <c r="G40" s="31"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="39"/>
       <c r="B41" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
       <c r="G41" s="30"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
@@ -2741,15 +2739,15 @@
       <c r="E42" s="36"/>
       <c r="F42" s="37"/>
       <c r="G42" s="31"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="41" t="s">
@@ -2765,38 +2763,38 @@
       <c r="E43" s="44"/>
       <c r="F43" s="45"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="82">
+      <c r="H43" s="60">
         <f>SUM(F37:G43)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="83"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="98"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="75"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
@@ -2810,17 +2808,17 @@
         <v>26</v>
       </c>
       <c r="E45" s="36"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="64"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="84"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
@@ -2834,37 +2832,37 @@
         <v>26</v>
       </c>
       <c r="E46" s="36"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="59"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="95"/>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="46"/>
       <c r="B47" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="47"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="66"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="41" t="s">
@@ -2878,40 +2876,40 @@
         <v>26</v>
       </c>
       <c r="E48" s="44"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="82">
+      <c r="F48" s="76"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="60">
         <f>SUM(F45:F48)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="83"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="101"/>
-      <c r="O48" s="101"/>
-      <c r="P48" s="101"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="97"/>
-      <c r="P49" s="98"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="75"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
@@ -2925,17 +2923,17 @@
         <v>26</v>
       </c>
       <c r="E50" s="36"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="64"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="84"/>
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
@@ -2949,37 +2947,37 @@
         <v>26</v>
       </c>
       <c r="E51" s="36"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="59"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="95"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="46"/>
       <c r="B52" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="104"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="47"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="41" t="s">
@@ -2993,41 +2991,41 @@
         <v>26</v>
       </c>
       <c r="E53" s="44"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="116">
+      <c r="F53" s="76"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="78">
         <f>SUM(F50:F53)</f>
         <v>0</v>
       </c>
-      <c r="I53" s="117"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="100"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="101"/>
-      <c r="O53" s="101"/>
-      <c r="P53" s="101"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
     </row>
     <row r="54" spans="1:16" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="106"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="110">
+      <c r="A54" s="64"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="68">
         <f>SUM(H53,H48,H43,H35,H27,H19,H11)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="111"/>
-      <c r="J54" s="112"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="113"/>
-      <c r="M54" s="113"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="114"/>
-      <c r="P54" s="115"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="73"/>
     </row>
     <row r="55" spans="1:16" s="21" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
@@ -3073,6 +3071,181 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="199">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="H40:I40"/>
@@ -3097,181 +3270,6 @@
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="J39:M39"/>
     <mergeCell ref="N39:P39"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3302,8 +3300,8 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
@@ -3312,51 +3310,51 @@
         <v>15</v>
       </c>
       <c r="I1" s="4"/>
-      <c r="J1" s="127">
+      <c r="J1" s="133">
         <v>20</v>
       </c>
-      <c r="K1" s="127"/>
+      <c r="K1" s="133"/>
       <c r="L1" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="130" t="s">
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="132"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="118" t="s">
@@ -3708,7 +3706,7 @@
       <c r="A25" s="118"/>
       <c r="B25" s="119"/>
       <c r="C25" s="119"/>
-      <c r="D25" s="133"/>
+      <c r="D25" s="128"/>
       <c r="E25" s="9">
         <v>1</v>
       </c>
@@ -3716,23 +3714,23 @@
       <c r="G25" s="122"/>
       <c r="H25" s="122"/>
       <c r="I25" s="122"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="136"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="131"/>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="118"/>
       <c r="B26" s="119"/>
       <c r="C26" s="119"/>
-      <c r="D26" s="133"/>
+      <c r="D26" s="128"/>
       <c r="E26" s="9"/>
       <c r="F26" s="13"/>
       <c r="G26" s="122"/>
       <c r="H26" s="122"/>
       <c r="I26" s="122"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="136"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="131"/>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="118"/>
@@ -4165,25 +4163,169 @@
       <c r="L52" s="125"/>
     </row>
     <row r="53" spans="1:12" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="130" t="s">
+      <c r="A53" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="131"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17">
         <v>44</v>
       </c>
-      <c r="G53" s="130"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="131"/>
-      <c r="L53" s="131"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:L47"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="G52:J52"/>
     <mergeCell ref="K52:L52"/>
@@ -4196,150 +4338,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="G51:J51"/>
     <mergeCell ref="K51:L51"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
